--- a/data/Seed weight/seedweight.data.xlsx
+++ b/data/Seed weight/seedweight.data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Blackmon Lab/Seed weight/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/Seed weight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D929DBEF-15F9-3A45-8F29-612A123BE686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD63B14-8A20-0343-AC74-7871A5056B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{9CA12BD0-AF31-F240-BEFD-6F01F5A8C97F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>cross</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>P2</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>environ</t>
   </si>
 </sst>
 </file>
@@ -421,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E07883-2893-C04C-9950-5186A6C92910}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,13 +449,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -456,14 +471,20 @@
       <c r="C2">
         <v>1.9E-3</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -473,14 +494,20 @@
       <c r="C3">
         <v>1.12E-2</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -490,14 +517,20 @@
       <c r="C4">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -507,14 +540,20 @@
       <c r="C5">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -524,14 +563,20 @@
       <c r="C6">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -541,14 +586,20 @@
       <c r="C7">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -558,10 +609,16 @@
       <c r="C8">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>7</v>
       </c>
     </row>

--- a/data/Seed weight/seedweight.data.xlsx
+++ b/data/Seed weight/seedweight.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/Seed weight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD63B14-8A20-0343-AC74-7871A5056B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35D003A-74D7-3D4A-978C-7696F5C19AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{9CA12BD0-AF31-F240-BEFD-6F01F5A8C97F}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>mean</t>
   </si>
   <si>
-    <t>se</t>
-  </si>
-  <si>
     <t>sire</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>environ</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,24 +446,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0.4032</v>
@@ -472,7 +472,7 @@
         <v>1.9E-3</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0.4521</v>
@@ -495,7 +495,7 @@
         <v>1.12E-2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.59419999999999995</v>
@@ -518,7 +518,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.56899999999999995</v>
@@ -541,7 +541,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.53890000000000005</v>
@@ -564,7 +564,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.7046</v>
@@ -587,7 +587,7 @@
         <v>2.2599999999999999E-2</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1.1823999999999999</v>
@@ -610,7 +610,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>1</v>
